--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartul\Documents\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC0AC1-2AD2-49C6-91B6-D3F2C7F1C17D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321E33E-E3F0-400E-B9D3-0B4B2A1B3C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,9 +763,6 @@
     <t>Prospect</t>
   </si>
   <si>
-    <t>Study Terrain</t>
-  </si>
-  <si>
     <t>Mine Shaft</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>Mechanism + Tank + metal</t>
+  </si>
+  <si>
+    <t>Study</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
         <v>82</v>
@@ -1691,7 +1691,7 @@
         <v>105</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
         <v>83</v>
@@ -1711,7 +1711,7 @@
         <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
         <v>84</v>
@@ -1725,7 +1725,7 @@
         <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -1922,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52704A77-CCC3-48DA-AB7C-9B77A5FEAF60}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2433,7 +2433,7 @@
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartul\Documents\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321E33E-E3F0-400E-B9D3-0B4B2A1B3C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8444F75-8C38-43FF-AB84-FFEDBDC7CBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,30 +445,9 @@
     <t>Alloying Silver, Gold and soul fragments.</t>
   </si>
   <si>
-    <t>iron+silver</t>
-  </si>
-  <si>
-    <t>steel+gold</t>
-  </si>
-  <si>
-    <t>felsteel+electrum</t>
-  </si>
-  <si>
-    <t>cursed steel + cursed electrum</t>
-  </si>
-  <si>
     <t>branch + rock + iron</t>
   </si>
   <si>
-    <t>wood+rock+steel</t>
-  </si>
-  <si>
-    <t>felwood+felstone+felsteel</t>
-  </si>
-  <si>
-    <t>cursewood+cursed stone+cursed steel</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -502,15 +481,6 @@
     <t>Cursed Electrum IV</t>
   </si>
   <si>
-    <t>Electrum III</t>
-  </si>
-  <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Silver I</t>
-  </si>
-  <si>
     <t>Iron I</t>
   </si>
   <si>
@@ -779,6 +749,36 @@
   </si>
   <si>
     <t>Study</t>
+  </si>
+  <si>
+    <t>Gold III</t>
+  </si>
+  <si>
+    <t>Silver II</t>
+  </si>
+  <si>
+    <t>Copper I</t>
+  </si>
+  <si>
+    <t>iron+copper</t>
+  </si>
+  <si>
+    <t>steel+silver+Mechanism I</t>
+  </si>
+  <si>
+    <t>felsteel+gold+Mechanism II</t>
+  </si>
+  <si>
+    <t>cursed steel + cursed electrum+Mechanism III</t>
+  </si>
+  <si>
+    <t>felwood+felstone+felsteel+Frame II</t>
+  </si>
+  <si>
+    <t>wood+rock+steel+Frame I</t>
+  </si>
+  <si>
+    <t>cursewood+cursed stone+cursed steel+Frame III</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -1711,7 +1711,7 @@
         <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K33" t="s">
         <v>84</v>
@@ -1722,10 +1722,10 @@
         <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52704A77-CCC3-48DA-AB7C-9B77A5FEAF60}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -1955,24 +1955,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>126</v>
@@ -1985,24 +1985,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>128</v>
@@ -2015,24 +2015,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>130</v>
@@ -2045,19 +2045,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -2094,171 +2094,171 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
         <v>121</v>
@@ -2266,70 +2266,70 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" t="s">
         <v>210</v>
       </c>
-      <c r="D25" t="s">
-        <v>220</v>
-      </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,15 +2401,15 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartul\Documents\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8444F75-8C38-43FF-AB84-FFEDBDC7CBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9565D2E1-681D-4946-93A4-853E39136FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="60" windowWidth="19890" windowHeight="14190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartul\Documents\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9565D2E1-681D-4946-93A4-853E39136FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9AD80-1F75-4336-8F42-B25D9A9FC006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="60" windowWidth="19890" windowHeight="14190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="60" windowWidth="19890" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,9 +517,6 @@
     <t>Cursewood IV</t>
   </si>
   <si>
-    <t>Mechanism I</t>
-  </si>
-  <si>
     <t>Mechanism IV</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>cursewood+cursed stone+cursed steel+Frame III</t>
+  </si>
+  <si>
+    <t>ka</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -1711,7 +1711,7 @@
         <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s">
         <v>84</v>
@@ -1722,10 +1722,10 @@
         <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -1922,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52704A77-CCC3-48DA-AB7C-9B77A5FEAF60}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1938,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>150</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>126</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>149</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>128</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>148</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>130</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>147</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -2094,50 +2094,50 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
         <v>241</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>242</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>243</v>
-      </c>
-      <c r="E14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,30 +2145,30 @@
         <v>136</v>
       </c>
       <c r="C16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
         <v>246</v>
-      </c>
-      <c r="D16" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,64 +2187,64 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" t="s">
         <v>176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
         <v>184</v>
       </c>
-      <c r="C22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>185</v>
-      </c>
-      <c r="E22" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,13 +2252,13 @@
         <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
         <v>121</v>
@@ -2269,16 +2269,16 @@
         <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,16 +2286,16 @@
         <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2320,16 +2320,16 @@
         <v>142</v>
       </c>
       <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="s">
         <v>208</v>
       </c>
-      <c r="C28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
-      </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,15 +2401,15 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
         <v>204</v>
-      </c>
-      <c r="B40" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartul\Documents\TheExiledOnes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9AD80-1F75-4336-8F42-B25D9A9FC006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9A58A-FB53-4158-A3F2-8FF40E5DD1B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="60" windowWidth="19890" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,9 +604,6 @@
     <t>Frame + 3 Tank</t>
   </si>
   <si>
-    <t>Frame + Tank + 2 Converter</t>
-  </si>
-  <si>
     <t>Frame + 2 Mechanism + 2 Converter</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>ka</t>
+  </si>
+  <si>
+    <t>Frame + Tank + Converter + Stone</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -1711,7 +1711,7 @@
         <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s">
         <v>84</v>
@@ -1722,10 +1722,10 @@
         <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52704A77-CCC3-48DA-AB7C-9B77A5FEAF60}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>150</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>126</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>149</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>128</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>148</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>130</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>147</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>166</v>
@@ -2111,21 +2111,21 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
         <v>240</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>241</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>242</v>
-      </c>
-      <c r="E14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>169</v>
@@ -2145,18 +2145,18 @@
         <v>136</v>
       </c>
       <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
         <v>245</v>
-      </c>
-      <c r="D16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>170</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>171</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>179</v>
@@ -2252,13 +2252,13 @@
         <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
         <v>121</v>
@@ -2269,16 +2269,16 @@
         <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,16 +2286,16 @@
         <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2320,16 +2320,16 @@
         <v>142</v>
       </c>
       <c r="B28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
         <v>207</v>
       </c>
-      <c r="C28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" t="s">
-        <v>208</v>
-      </c>
       <c r="E28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,15 +2401,15 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
         <v>203</v>
-      </c>
-      <c r="B40" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9A58A-FB53-4158-A3F2-8FF40E5DD1B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0BC65-7A9C-4FF7-81DE-3A903C2B554D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="251">
   <si>
     <t>Prospector</t>
   </si>
@@ -779,6 +779,15 @@
   </si>
   <si>
     <t>Frame + Tank + Converter + Stone</t>
+  </si>
+  <si>
+    <t>Fel Steel</t>
+  </si>
+  <si>
+    <t>Building Tools</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1783,10 @@
         <v>67</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="K42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1782,7 +1794,10 @@
         <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>248</v>
+      </c>
+      <c r="K43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,7 +1814,10 @@
         <v>69</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>249</v>
+      </c>
+      <c r="K44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,7 +1834,10 @@
         <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1844,7 +1865,7 @@
         <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1861,7 +1882,7 @@
         <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,7 +1893,7 @@
         <v>73</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,7 +1901,7 @@
         <v>74</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -1888,15 +1909,12 @@
         <v>79</v>
       </c>
       <c r="J52" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>80</v>
-      </c>
-      <c r="J53" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,7 +1941,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0BC65-7A9C-4FF7-81DE-3A903C2B554D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB62184-CF71-4967-A53D-66B08B8E3769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="258">
   <si>
     <t>Prospector</t>
   </si>
@@ -788,6 +789,27 @@
   </si>
   <si>
     <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Automaton</t>
+  </si>
+  <si>
+    <t>Basic worker that runs on Fel. Can be given basic orders. Upgradable with Mechanism for speed and Tank for max Fel and inventory slots.</t>
+  </si>
+  <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>A device that latches onto a unit with Fel storage. It takes Fel out of  it, depositing it into its target units.</t>
+  </si>
+  <si>
+    <t>Machine Interface</t>
+  </si>
+  <si>
+    <t>A structure that can store a large number of one type of items.</t>
+  </si>
+  <si>
+    <t>A device that can interact with different inventories, taking and placing items into them.</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,16 +1258,19 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1278,28 +1303,28 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>50</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1318,14 +1343,14 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1350,7 +1375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1361,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1375,27 +1400,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>40</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>41</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1411,98 +1436,99 @@
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>60</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>54</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>60</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>51</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>49</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>47</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
@@ -1515,17 +1541,17 @@
       <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>12</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>30</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1536,17 +1562,17 @@
       <c r="H21">
         <v>50</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>21</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>100</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1557,22 +1583,22 @@
       <c r="H22">
         <v>150</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>300</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
@@ -1582,14 +1608,17 @@
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1600,14 +1629,17 @@
       <c r="H26" t="s">
         <v>8</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
         <v>235</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1618,28 +1650,28 @@
       <c r="H27" t="s">
         <v>75</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>63</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1649,14 +1681,14 @@
       <c r="H29" t="s">
         <v>93</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1696,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1675,17 +1707,17 @@
       <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>96</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>120</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1696,111 +1728,111 @@
       <c r="H32" t="s">
         <v>94</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>105</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>61</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" t="s">
         <v>83</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>73</v>
       </c>
       <c r="H33" t="s">
         <v>87</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>106</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>230</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>74</v>
       </c>
       <c r="H34" t="s">
         <v>229</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>231</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>79</v>
       </c>
       <c r="H36" t="s">
         <v>104</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>107</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>80</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>108</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>67</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>110</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>68</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>248</v>
       </c>
-      <c r="K43" t="s">
+      <c r="N43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1813,14 +1845,14 @@
       <c r="G44" t="s">
         <v>69</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>249</v>
       </c>
-      <c r="K44" t="s">
+      <c r="N44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1833,14 +1865,14 @@
       <c r="G45" t="s">
         <v>70</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>109</v>
       </c>
-      <c r="K45" t="s">
+      <c r="N45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1851,7 +1883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1864,11 +1896,11 @@
       <c r="G47" t="s">
         <v>71</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1881,47 +1913,47 @@
       <c r="G48" t="s">
         <v>72</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
         <v>73</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>74</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>79</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>81</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1940,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52704A77-CCC3-48DA-AB7C-9B77A5FEAF60}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,4 +2508,114 @@
     <ignoredError sqref="A2 A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FCCF2C-93A4-4C17-97BE-DCBC747267AD}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB62184-CF71-4967-A53D-66B08B8E3769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D14635-0A16-4F10-8AC9-D5E588BC71E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D14635-0A16-4F10-8AC9-D5E588BC71E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A6BC9-34A5-4239-BDB6-5D04754B851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="261">
   <si>
     <t>Prospector</t>
   </si>
@@ -810,6 +810,15 @@
   </si>
   <si>
     <t>A device that can interact with different inventories, taking and placing items into them.</t>
+  </si>
+  <si>
+    <t>Reveals invisible small animals</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Net</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FCCF2C-93A4-4C17-97BE-DCBC747267AD}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,21 +2549,36 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2594,16 +2618,19 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2612,6 +2639,66 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>81</v>
       </c>
     </row>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A6BC9-34A5-4239-BDB6-5D04754B851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CD543A-4FB5-44D7-9A58-FAD01297C79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="266">
   <si>
     <t>Prospector</t>
   </si>
@@ -819,6 +819,21 @@
   </si>
   <si>
     <t>Net</t>
+  </si>
+  <si>
+    <t>2x Iron, 2x Log, Rabbit + Frog</t>
+  </si>
+  <si>
+    <t>Frame + Iron, Copper + Frog,  Skink + Rabbit</t>
+  </si>
+  <si>
+    <t>Tanks</t>
+  </si>
+  <si>
+    <t>Converters</t>
+  </si>
+  <si>
+    <t>4 Iron, 4 Iron, 3 Iron + Frame</t>
   </si>
 </sst>
 </file>
@@ -1254,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52704A77-CCC3-48DA-AB7C-9B77A5FEAF60}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2539,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>258</v>
@@ -2642,62 +2657,83 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>

--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CD543A-4FB5-44D7-9A58-FAD01297C79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B166E-0BC9-4E78-AF4F-8B1BF828FA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Unit stats" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="287">
   <si>
     <t>Prospector</t>
   </si>
@@ -834,6 +835,69 @@
   </si>
   <si>
     <t>4 Iron, 4 Iron, 3 Iron + Frame</t>
+  </si>
+  <si>
+    <t>Taking hits table</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Hits taken per member</t>
+  </si>
+  <si>
+    <t>EHP</t>
+  </si>
+  <si>
+    <t>Dmg per hit</t>
+  </si>
+  <si>
+    <t>Attack speed</t>
+  </si>
+  <si>
+    <t>Enemy Count</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Party size</t>
+  </si>
+  <si>
+    <t>expectant</t>
+  </si>
+  <si>
+    <t># of units</t>
+  </si>
+  <si>
+    <t>total wave size</t>
+  </si>
+  <si>
+    <t>enemy hp</t>
+  </si>
+  <si>
+    <t>Enemy unit stats</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>40 attacks</t>
+  </si>
+  <si>
+    <t>base dmg</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Pick</t>
   </si>
 </sst>
 </file>
@@ -928,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -944,6 +1008,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1553,12 +1618,12 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="G20" t="s">
         <v>18</v>
       </c>
@@ -1576,10 +1641,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="G21" t="s">
         <v>19</v>
       </c>
@@ -1597,10 +1662,10 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="G22" t="s">
         <v>20</v>
       </c>
@@ -1623,12 +1688,12 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,10 +1708,10 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="G26" t="s">
         <v>67</v>
       </c>
@@ -1664,10 +1729,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="G27" t="s">
         <v>68</v>
       </c>
@@ -1713,18 +1778,18 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="G31" t="s">
         <v>71</v>
       </c>
@@ -1742,10 +1807,10 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="G32" t="s">
         <v>72</v>
       </c>
@@ -2538,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FCCF2C-93A4-4C17-97BE-DCBC747267AD}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2741,4 +2806,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1474709D-14AD-4F9F-8D7D-D4B71FDDB310}">
+  <dimension ref="A3:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="11">
+        <f>D4/C4</f>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11">
+        <f>C4/4 *F4</f>
+        <v>13.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" t="s">
+        <v>277</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <f>K17*$Q$10</f>
+        <v>250</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>283</v>
+      </c>
+      <c r="J23">
+        <f>40*5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>285</v>
+      </c>
+      <c r="O24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>20</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B166E-0BC9-4E78-AF4F-8B1BF828FA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5620D4-8A56-46D2-94CA-06D842F8B110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Unit stats" sheetId="5" r:id="rId4"/>
+    <sheet name="Artisan" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="301">
   <si>
     <t>Prospector</t>
   </si>
@@ -898,6 +899,48 @@
   </si>
   <si>
     <t>Pick</t>
+  </si>
+  <si>
+    <t>Crude Pickaxe</t>
+  </si>
+  <si>
+    <t>Mineshaft</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>To Automate:</t>
+  </si>
+  <si>
+    <t>Stone mining</t>
+  </si>
+  <si>
+    <t>Log mining</t>
+  </si>
+  <si>
+    <t>Quarry</t>
+  </si>
+  <si>
+    <t>Mutator</t>
+  </si>
+  <si>
+    <t>Steel processing</t>
+  </si>
+  <si>
+    <t>Foundry</t>
+  </si>
+  <si>
+    <t>Extract Fel</t>
+  </si>
+  <si>
+    <t>Transfer Fel</t>
+  </si>
+  <si>
+    <t>Scouts</t>
+  </si>
+  <si>
+    <t>Assembler</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1011,6 +1054,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2108,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,7 +2650,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1474709D-14AD-4F9F-8D7D-D4B71FDDB310}">
   <dimension ref="A3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,4 +3087,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A426C-8924-4C1E-B3C0-0631FAC30DBE}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameTechTree.xlsx
+++ b/GameTechTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wc3-projects\TheExiledOnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5620D4-8A56-46D2-94CA-06D842F8B110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1D082-E58A-44EE-A2BB-B4675D94044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="795" windowWidth="20730" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="305">
   <si>
     <t>Prospector</t>
   </si>
@@ -931,16 +931,28 @@
     <t>Foundry</t>
   </si>
   <si>
-    <t>Extract Fel</t>
-  </si>
-  <si>
     <t>Transfer Fel</t>
   </si>
   <si>
-    <t>Scouts</t>
-  </si>
-  <si>
     <t>Assembler</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Item Transfer Node</t>
+  </si>
+  <si>
+    <t>Kilrogg</t>
+  </si>
+  <si>
+    <t>Fel Extraction</t>
+  </si>
+  <si>
+    <t>Crystallize</t>
+  </si>
+  <si>
+    <t>Burning Quarry</t>
   </si>
 </sst>
 </file>
@@ -3091,10 +3103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A426C-8924-4C1E-B3C0-0631FAC30DBE}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3114,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>86</v>
       </c>
@@ -3113,8 +3125,11 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3133,8 +3148,17 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3145,13 +3169,22 @@
         <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -3167,8 +3200,17 @@
       <c r="K5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3184,8 +3226,17 @@
       <c r="K6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3195,28 +3246,49 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
+      <c r="H8" t="s">
+        <v>303</v>
+      </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>253</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -3227,24 +3299,45 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
+      <c r="H11" t="s">
+        <v>304</v>
+      </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -3257,8 +3350,11 @@
       <c r="K13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3271,8 +3367,11 @@
       <c r="K14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3280,6 +3379,9 @@
         <v>81</v>
       </c>
       <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s">
         <v>81</v>
       </c>
     </row>
